--- a/metadata/rcs10/RLTLSOIL/01-RLTLSOIL.xlsx
+++ b/metadata/rcs10/RLTLSOIL/01-RLTLSOIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8269D4B-F300-4EA3-9AEB-6EEE8FF2BFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F70A67-B89B-4AC5-9054-73DF068315AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="701" activeTab="1" xr2:uid="{10B9E9CC-3332-4B85-8B8C-E43DF0A14E91}"/>
+    <workbookView xWindow="2055" yWindow="945" windowWidth="21600" windowHeight="11385" tabRatio="701" xr2:uid="{10B9E9CC-3332-4B85-8B8C-E43DF0A14E91}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="17" r:id="rId1"/>
@@ -2852,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB662DB-5CB7-48DF-9785-7AF58C683732}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,7 +3112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>108</v>
       </c>
@@ -3496,7 +3496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95647C-D791-4726-A417-748D0F54412B}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -80987,8 +80987,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="df2f41b8cf8911f1d6517ec81b542661">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" xmlns:ns4="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c9b8f8302b5d932af5dac8f68d1b6fe" ns2:_="" ns3:_="" ns4:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6584b4ba-af75-4ac8-8379-7172592f8823">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99b455209db282e8e6e2ab1198281278">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" xmlns:ns4="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e79ca979dda8c4f50da160955269f501" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6584b4ba-af75-4ac8-8379-7172592f8823"/>
     <xsd:import namespace="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
     <xsd:import namespace="bf3d09fe-6738-443d-9673-b7ff0d7dd09c"/>
@@ -81014,6 +81025,7 @@
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -81093,6 +81105,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -81240,17 +81257,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6584b4ba-af75-4ac8-8379-7172592f8823">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -81261,26 +81267,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3814D328-93BA-46CB-8499-032DC211D0CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6584b4ba-af75-4ac8-8379-7172592f8823"/>
-    <ds:schemaRef ds:uri="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
-    <ds:schemaRef ds:uri="bf3d09fe-6738-443d-9673-b7ff0d7dd09c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC7613C-7CD7-4BC9-B807-BEE6F2A024E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -81298,6 +81284,10 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1926CD7-F59B-4D84-A1C6-5BCAC6EE545E}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF773D61-F3DF-498F-A852-8E0AA8A11C38}">
   <ds:schemaRefs>
